--- a/data/trans_orig/P14B07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B07-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BF9CB1C-ED24-46B6-A63A-E07FA6CF1BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B2E621-B678-45F2-9B37-5727A06BDFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA351239-183E-4ABD-839E-E48E8416C59A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{40D44733-DED9-4C06-8777-AD2EBEFACCD8}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="173">
   <si>
     <t>Población cuyo estreñimiento crónico le limita en 2012 (Tasa respuesta: 1,09%)</t>
   </si>
@@ -93,37 +93,37 @@
     <t>46,53%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>47,04%</t>
   </si>
   <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
   </si>
   <si>
     <t>53,47%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
   </si>
   <si>
     <t>52,96%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -150,19 +150,19 @@
     <t>25,12%</t>
   </si>
   <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
   </si>
   <si>
     <t>23,12%</t>
   </si>
   <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -171,19 +171,19 @@
     <t>74,88%</t>
   </si>
   <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>76,88%</t>
   </si>
   <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
+    <t>58,6%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -192,25 +192,19 @@
     <t>22,17%</t>
   </si>
   <si>
-    <t>65,38%</t>
-  </si>
-  <si>
     <t>19,74%</t>
   </si>
   <si>
-    <t>58,46%</t>
+    <t>59,99%</t>
   </si>
   <si>
     <t>77,83%</t>
   </si>
   <si>
-    <t>34,62%</t>
-  </si>
-  <si>
     <t>80,26%</t>
   </si>
   <si>
-    <t>41,54%</t>
+    <t>40,01%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -237,85 +231,85 @@
     <t>53,62%</t>
   </si>
   <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
   </si>
   <si>
     <t>57,63%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
   </si>
   <si>
     <t>46,38%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
   </si>
   <si>
     <t>42,37%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>56,94%</t>
+    <t>57,13%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>41,28%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>43,06%</t>
+    <t>42,87%</t>
   </si>
   <si>
     <t>71,27%</t>
   </si>
   <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
+    <t>58,72%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -327,37 +321,37 @@
     <t>51,48%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
   </si>
   <si>
     <t>46,76%</t>
   </si>
   <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>48,52%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
   </si>
   <si>
     <t>53,24%</t>
   </si>
   <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -375,25 +369,25 @@
     <t>12,09%</t>
   </si>
   <si>
-    <t>43,13%</t>
+    <t>53,52%</t>
   </si>
   <si>
     <t>20,98%</t>
   </si>
   <si>
-    <t>60,24%</t>
+    <t>61,03%</t>
   </si>
   <si>
     <t>87,91%</t>
   </si>
   <si>
-    <t>56,87%</t>
+    <t>46,48%</t>
   </si>
   <si>
     <t>79,02%</t>
   </si>
   <si>
-    <t>39,76%</t>
+    <t>38,97%</t>
   </si>
   <si>
     <t>48,25%</t>
@@ -450,13 +444,13 @@
     <t>6,61%</t>
   </si>
   <si>
-    <t>33,71%</t>
+    <t>28,19%</t>
   </si>
   <si>
     <t>10,7%</t>
   </si>
   <si>
-    <t>31,99%</t>
+    <t>36,02%</t>
   </si>
   <si>
     <t>54,07%</t>
@@ -465,103 +459,103 @@
     <t>93,39%</t>
   </si>
   <si>
-    <t>66,29%</t>
+    <t>71,81%</t>
   </si>
   <si>
     <t>89,3%</t>
   </si>
   <si>
-    <t>68,01%</t>
+    <t>63,98%</t>
   </si>
   <si>
     <t>38,6%</t>
   </si>
   <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
   </si>
   <si>
     <t>61,4%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>66,4%</t>
   </si>
   <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
   </si>
   <si>
     <t>26,07%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>73,93%</t>
   </si>
   <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
   </si>
 </sst>
 </file>
@@ -973,7 +967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452107F7-DC16-4E18-8D1E-301F634BE246}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694F71DF-2D55-4456-8DF6-D51293808480}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1714,7 +1708,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -1723,13 +1717,13 @@
         <v>2107</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1759,10 +1753,10 @@
         <v>7394</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -1774,10 +1768,10 @@
         <v>8563</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>16</v>
@@ -1836,7 +1830,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1985,7 +1979,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2018,7 +2012,7 @@
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2033,7 +2027,7 @@
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,7 +2060,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>29</v>
@@ -2081,7 +2075,7 @@
         <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>29</v>
@@ -2140,7 +2134,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2167,13 +2161,13 @@
         <v>6179</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2182,13 +2176,13 @@
         <v>7270</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,13 +2212,13 @@
         <v>5345</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2233,13 +2227,13 @@
         <v>5345</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2301,13 @@
         <v>2101</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -2322,13 +2316,13 @@
         <v>19427</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -2337,13 +2331,13 @@
         <v>21528</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2358,10 +2352,10 @@
         <v>7141</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>16</v>
@@ -2373,13 +2367,13 @@
         <v>48193</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -2388,13 +2382,13 @@
         <v>55334</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,7 +2444,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FCA40FF-F28F-4BC7-9470-A8F429C635AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9673958F-1581-4586-87EF-CBD0B401C587}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2491,7 +2485,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2613,13 +2607,13 @@
         <v>6301</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2628,13 +2622,13 @@
         <v>6301</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2664,13 +2658,13 @@
         <v>5940</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2679,13 +2673,13 @@
         <v>7176</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2753,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2787,7 +2781,7 @@
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,7 +2799,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>29</v>
@@ -2833,7 +2827,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>29</v>
@@ -2908,7 +2902,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2923,7 +2917,7 @@
         <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2938,7 +2932,7 @@
         <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2956,7 +2950,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>29</v>
@@ -2971,7 +2965,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>29</v>
@@ -2986,7 +2980,7 @@
         <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>29</v>
@@ -3072,13 +3066,13 @@
         <v>969</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3087,13 +3081,13 @@
         <v>1870</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,10 +3117,10 @@
         <v>7043</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -3138,10 +3132,10 @@
         <v>7044</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -3227,7 +3221,7 @@
         <v>981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
@@ -3242,7 +3236,7 @@
         <v>981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
@@ -3278,7 +3272,7 @@
         <v>1053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
@@ -3293,7 +3287,7 @@
         <v>1944</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
@@ -3355,7 +3349,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3367,13 +3361,13 @@
         <v>807</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3382,13 +3376,13 @@
         <v>1259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3397,13 +3391,13 @@
         <v>2066</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,10 +3412,10 @@
         <v>2608</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>16</v>
@@ -3433,10 +3427,10 @@
         <v>3216</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -3448,10 +3442,10 @@
         <v>5825</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -3510,7 +3504,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3522,7 +3516,7 @@
         <v>892</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
@@ -3537,13 +3531,13 @@
         <v>1106</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3552,13 +3546,13 @@
         <v>1998</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,7 +3567,7 @@
         <v>1051</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>15</v>
@@ -3588,10 +3582,10 @@
         <v>15621</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>16</v>
@@ -3603,10 +3597,10 @@
         <v>16672</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>16</v>
@@ -3665,7 +3659,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3692,13 +3686,13 @@
         <v>4800</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -3707,13 +3701,13 @@
         <v>4800</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3737,13 @@
         <v>7637</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -3758,13 +3752,13 @@
         <v>9485</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3826,13 @@
         <v>2600</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -3847,13 +3841,13 @@
         <v>15417</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -3862,13 +3856,13 @@
         <v>18017</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3877,13 @@
         <v>13962</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H29" s="7">
         <v>37</v>
@@ -3898,13 +3892,13 @@
         <v>43714</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -3913,13 +3907,13 @@
         <v>57676</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +3969,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B07-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B07-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3B2E621-B678-45F2-9B37-5727A06BDFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72E19238-95EC-4C53-B417-CC288100121D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{40D44733-DED9-4C06-8777-AD2EBEFACCD8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D686A2AF-D782-465B-8060-70A6D1CC347E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="171">
   <si>
     <t>Población cuyo estreñimiento crónico le limita en 2012 (Tasa respuesta: 1,09%)</t>
   </si>
@@ -93,37 +93,37 @@
     <t>46,53%</t>
   </si>
   <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
   </si>
   <si>
     <t>47,04%</t>
   </si>
   <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>71,46%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
   </si>
   <si>
     <t>53,47%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
   </si>
   <si>
     <t>52,96%</t>
   </si>
   <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -150,19 +150,19 @@
     <t>25,12%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
   </si>
   <si>
     <t>23,12%</t>
   </si>
   <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -171,19 +171,19 @@
     <t>74,88%</t>
   </si>
   <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
   </si>
   <si>
     <t>76,88%</t>
   </si>
   <si>
-    <t>58,6%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
+    <t>59,02%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -192,19 +192,25 @@
     <t>22,17%</t>
   </si>
   <si>
+    <t>55,67%</t>
+  </si>
+  <si>
     <t>19,74%</t>
   </si>
   <si>
-    <t>59,99%</t>
+    <t>50,93%</t>
   </si>
   <si>
     <t>77,83%</t>
   </si>
   <si>
+    <t>44,33%</t>
+  </si>
+  <si>
     <t>80,26%</t>
   </si>
   <si>
-    <t>40,01%</t>
+    <t>49,07%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -231,127 +237,127 @@
     <t>53,62%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
   </si>
   <si>
     <t>57,63%</t>
   </si>
   <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
   </si>
   <si>
     <t>46,38%</t>
   </si>
   <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>74,31%</t>
   </si>
   <si>
     <t>42,37%</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>57,13%</t>
+    <t>57,05%</t>
   </si>
   <si>
     <t>28,73%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
   </si>
   <si>
     <t>28,01%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
   </si>
   <si>
     <t>77,27%</t>
   </si>
   <si>
-    <t>42,87%</t>
+    <t>42,95%</t>
   </si>
   <si>
     <t>71,27%</t>
   </si>
   <si>
-    <t>58,72%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
+    <t>59,16%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>71,99%</t>
   </si>
   <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyo estreñimiento crónico le limita en 2015 (Tasa respuesta: 1,04%)</t>
+    <t>Población cuyo estreñimiento crónico le limita en 2016 (Tasa respuesta: 1,04%)</t>
   </si>
   <si>
     <t>51,48%</t>
   </si>
   <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
   </si>
   <si>
     <t>46,76%</t>
   </si>
   <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
   </si>
   <si>
     <t>48,52%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>78,69%</t>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
   </si>
   <si>
     <t>53,24%</t>
   </si>
   <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -369,25 +375,25 @@
     <t>12,09%</t>
   </si>
   <si>
-    <t>53,52%</t>
+    <t>56,82%</t>
   </si>
   <si>
     <t>20,98%</t>
   </si>
   <si>
-    <t>61,03%</t>
+    <t>58,67%</t>
   </si>
   <si>
     <t>87,91%</t>
   </si>
   <si>
-    <t>46,48%</t>
+    <t>43,18%</t>
   </si>
   <si>
     <t>79,02%</t>
   </si>
   <si>
-    <t>38,97%</t>
+    <t>41,33%</t>
   </si>
   <si>
     <t>48,25%</t>
@@ -417,7 +423,7 @@
     <t>26,18%</t>
   </si>
   <si>
-    <t>65,97%</t>
+    <t>67,51%</t>
   </si>
   <si>
     <t>76,38%</t>
@@ -435,7 +441,7 @@
     <t>73,82%</t>
   </si>
   <si>
-    <t>34,03%</t>
+    <t>32,49%</t>
   </si>
   <si>
     <t>45,93%</t>
@@ -444,13 +450,13 @@
     <t>6,61%</t>
   </si>
   <si>
-    <t>28,19%</t>
+    <t>27,61%</t>
   </si>
   <si>
     <t>10,7%</t>
   </si>
   <si>
-    <t>36,02%</t>
+    <t>38,95%</t>
   </si>
   <si>
     <t>54,07%</t>
@@ -459,103 +465,91 @@
     <t>93,39%</t>
   </si>
   <si>
-    <t>71,81%</t>
+    <t>72,39%</t>
   </si>
   <si>
     <t>89,3%</t>
   </si>
   <si>
-    <t>63,98%</t>
+    <t>61,05%</t>
   </si>
   <si>
     <t>38,6%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
   </si>
   <si>
     <t>33,6%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
   </si>
   <si>
     <t>61,4%</t>
   </si>
   <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>66,4%</t>
   </si>
   <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>23,8%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>36,03%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>61,04%</t>
-  </si>
-  <si>
-    <t>84,28%</t>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
   </si>
   <si>
     <t>76,2%</t>
   </si>
   <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>63,97%</t>
   </si>
 </sst>
 </file>
@@ -967,7 +961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694F71DF-2D55-4456-8DF6-D51293808480}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC6D2D48-E753-4B68-B4BB-D4037A4A8A4E}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1708,7 +1702,7 @@
         <v>15</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -1717,13 +1711,13 @@
         <v>2107</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,10 +1747,10 @@
         <v>7394</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -1768,10 +1762,10 @@
         <v>8563</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>16</v>
@@ -1830,7 +1824,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1979,7 +1973,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2012,7 +2006,7 @@
         <v>31</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -2027,7 +2021,7 @@
         <v>31</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,7 +2054,7 @@
         <v>16</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>29</v>
@@ -2075,7 +2069,7 @@
         <v>16</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>29</v>
@@ -2134,7 +2128,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2161,13 +2155,13 @@
         <v>6179</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2176,13 +2170,13 @@
         <v>7270</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2212,13 +2206,13 @@
         <v>5345</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -2227,13 +2221,13 @@
         <v>5345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,13 +2295,13 @@
         <v>2101</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -2316,13 +2310,13 @@
         <v>19427</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>20</v>
@@ -2331,13 +2325,13 @@
         <v>21528</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2352,10 +2346,10 @@
         <v>7141</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>16</v>
@@ -2367,13 +2361,13 @@
         <v>48193</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -2382,13 +2376,13 @@
         <v>55334</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2444,7 +2438,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +2462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9673958F-1581-4586-87EF-CBD0B401C587}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E92A76-5037-4AF4-9332-501DE82B4D01}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2485,7 +2479,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2607,13 +2601,13 @@
         <v>6301</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
         <v>6</v>
@@ -2622,13 +2616,13 @@
         <v>6301</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2658,13 +2652,13 @@
         <v>5940</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -2673,13 +2667,13 @@
         <v>7176</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2753,7 +2747,7 @@
         <v>31</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2781,7 +2775,7 @@
         <v>31</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,7 +2793,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>29</v>
@@ -2827,7 +2821,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>29</v>
@@ -2902,7 +2896,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2917,7 +2911,7 @@
         <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -2932,7 +2926,7 @@
         <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,7 +2944,7 @@
         <v>16</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>29</v>
@@ -2965,7 +2959,7 @@
         <v>16</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>29</v>
@@ -2980,7 +2974,7 @@
         <v>16</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>29</v>
@@ -3066,13 +3060,13 @@
         <v>969</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3081,13 +3075,13 @@
         <v>1870</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,10 +3111,10 @@
         <v>7043</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>16</v>
@@ -3132,10 +3126,10 @@
         <v>7044</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>16</v>
@@ -3221,7 +3215,7 @@
         <v>981</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>15</v>
@@ -3236,7 +3230,7 @@
         <v>981</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>15</v>
@@ -3272,7 +3266,7 @@
         <v>1053</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
@@ -3287,7 +3281,7 @@
         <v>1944</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
@@ -3349,7 +3343,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3361,13 +3355,13 @@
         <v>807</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3376,13 +3370,13 @@
         <v>1259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -3391,13 +3385,13 @@
         <v>2066</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3412,10 +3406,10 @@
         <v>2608</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>16</v>
@@ -3427,10 +3421,10 @@
         <v>3216</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>16</v>
@@ -3442,10 +3436,10 @@
         <v>5825</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>16</v>
@@ -3504,7 +3498,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3516,7 +3510,7 @@
         <v>892</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>15</v>
@@ -3531,13 +3525,13 @@
         <v>1106</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -3546,13 +3540,13 @@
         <v>1998</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3561,7 @@
         <v>1051</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>15</v>
@@ -3582,10 +3576,10 @@
         <v>15621</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>16</v>
@@ -3597,10 +3591,10 @@
         <v>16672</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>16</v>
@@ -3659,7 +3653,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3686,13 +3680,13 @@
         <v>4800</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>4</v>
@@ -3701,13 +3695,13 @@
         <v>4800</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,13 +3731,13 @@
         <v>7637</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -3752,13 +3746,13 @@
         <v>9485</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3820,13 @@
         <v>2600</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>14</v>
@@ -3841,13 +3835,13 @@
         <v>15417</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>158</v>
+        <v>24</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>17</v>
@@ -3856,10 +3850,10 @@
         <v>18017</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>163</v>
@@ -3892,13 +3886,13 @@
         <v>43714</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M29" s="7">
         <v>51</v>
@@ -3907,13 +3901,13 @@
         <v>57676</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +3963,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
